--- a/Assignment1/hops_latency.xlsx
+++ b/Assignment1/hops_latency.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="35">
   <si>
     <t>Number of Hops</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>Canada </t>
+    <t>Canada</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -41,7 +41,7 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Ukraine </t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>UK</t>
@@ -74,7 +74,52 @@
     <t>NA</t>
   </si>
   <si>
-    <t>kraine </t>
+    <t>Frequency of hops</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Country/Continent</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>IP/Continent</t>
+  </si>
+  <si>
+    <t>IITD</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Capetown</t>
+  </si>
+  <si>
+    <t>IIT</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Total Numbr of hops</t>
   </si>
 </sst>
 </file>
@@ -89,6 +134,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,10 +216,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D158" activeCellId="0" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -181,7 +227,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1989795918367"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,9 +664,2738 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J98" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O109" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M123" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M124" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J126" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J127" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J128" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J129" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J130" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L141" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M141" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J142" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L142" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M142" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N142" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O142" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J143" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J144" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J145" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J146" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J147" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J148" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L152" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M152" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J153" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M153" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N153" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O153" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J154" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J155" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J156" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J157" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J158" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J159" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
